--- a/data/TuckshopPrimary.xlsx
+++ b/data/TuckshopPrimary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="104">
   <si>
     <t>Form</t>
   </si>
@@ -283,6 +283,54 @@
   </si>
   <si>
     <t>Special instructions: this is a test for a very long string so we'll see how we handle that</t>
+  </si>
+  <si>
+    <t>Generic sandwhich</t>
+  </si>
+  <si>
+    <t>Soda</t>
+  </si>
+  <si>
+    <t>Nut allergy</t>
+  </si>
+  <si>
+    <t>197320016988:aMidK</t>
+  </si>
+  <si>
+    <t>197320016988:aMkFFCKCf</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Cera</t>
+  </si>
+  <si>
+    <t>Captain</t>
+  </si>
+  <si>
+    <t>Underpants</t>
+  </si>
+  <si>
+    <t>Donny</t>
+  </si>
+  <si>
+    <t>Darko</t>
+  </si>
+  <si>
+    <t>Harold</t>
+  </si>
+  <si>
+    <t>Holt</t>
+  </si>
+  <si>
+    <t>Jameson</t>
+  </si>
+  <si>
+    <t>Whiskey</t>
+  </si>
+  <si>
+    <t>Apples, Bananas</t>
   </si>
 </sst>
 </file>
@@ -780,10 +828,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1140,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,388 +1203,552 @@
     <col min="10" max="10" width="9" style="1" customWidth="1"/>
     <col min="11" max="11" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.140625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="28.42578125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1">
-        <v>1110074</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19" ht="210" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1">
-        <v>1110075</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1">
-        <v>1110078</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1">
-        <v>1122706</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="165" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1">
-        <v>1122711</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1">
-        <v>1122719</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="2" t="s">
         <v>69</v>
       </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
-    <hyperlink ref="K7" r:id="rId6"/>
+    <hyperlink ref="K9" r:id="rId1"/>
+    <hyperlink ref="K8" r:id="rId2"/>
+    <hyperlink ref="K7" r:id="rId3"/>
+    <hyperlink ref="K6" r:id="rId4"/>
+    <hyperlink ref="K5" r:id="rId5"/>
+    <hyperlink ref="K4" r:id="rId6"/>
+    <hyperlink ref="K3" r:id="rId7"/>
+    <hyperlink ref="K2" r:id="rId8"/>
+    <hyperlink ref="K10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
